--- a/va_facility_data_2025-02-20/Key Largo VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Key%20Largo%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Key Largo VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Key%20Largo%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R3eb01aeef6c046c483eb587ec6a73e86"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R05e3a15a1a8247c1965062cca31638c6"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rd91a32d6d86e4311805de94b7bf45df8"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R86965dc771b542519eefc16d69020822"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R3e291472435d4532a469b7b22ee43f8e"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rb759414dcb004c9195bc082b71d7700e"/>
   </x:sheets>
 </x:workbook>
 </file>
